--- a/old_database/crypto/fastqFiles/fastq_2288.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_2288.xlsx
@@ -37,7 +37,7 @@
     <t>6.12.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2288</t>
   </si>
   <si>
     <t>sequence/run_2288_samples/Brent_2288_1_TGAGGTT_S2_R1_001.fastq.gz</t>
